--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,11 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -177,9 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,13 +189,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,198 +539,201 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E20:E21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>835</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="11">
+        <f>835/60</f>
+        <v>13.916666666666666</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
-        <v>1144</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="11">
+        <f>1144/60</f>
+        <v>19.066666666666666</v>
+      </c>
+      <c r="F3" s="13">
         <f>E3-E2</f>
-        <v>309</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+        <v>5.15</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
-        <v>1681</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="11">
+        <f>1681/60</f>
+        <v>28.016666666666666</v>
+      </c>
+      <c r="F4" s="13">
         <f t="shared" ref="F4:F5" si="0">E4-E3</f>
-        <v>537</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
-        <v>2197</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="14">
+        <f>2197/60</f>
+        <v>36.616666666666667</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>516</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8">
-        <v>1720</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15">
+        <f>1720/60</f>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="D10" s="10"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19">
+        <f>2800/60</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H10" s="20">
         <f>G10-G9</f>
-        <v>1180</v>
+        <v>17.999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -192,34 +192,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,8 +706,14 @@
       <c r="D11" s="10"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="19">
+        <f>4000/60</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H11" s="20">
+        <f>G11-G10</f>
+        <v>20.000000000000007</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2">

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -539,7 +539,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,8 +722,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="19">
+        <f>5000/60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H12" s="20">
+        <f>G12-G11</f>
+        <v>16.666666666666657</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
